--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,472 +74,487 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.974+/-0.003</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.968+/-0.021</t>
-  </si>
-  <si>
-    <t>0.721+/-0.016</t>
-  </si>
-  <si>
-    <t>0.564</t>
-  </si>
-  <si>
-    <t>0.98+/-0.028</t>
-  </si>
-  <si>
-    <t>0.848+/-0.028</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647+/-0.002</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.973+/-0.004</t>
+  </si>
+  <si>
+    <t>0.751+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.973+/-0.022</t>
+  </si>
+  <si>
+    <t>0.713+/-0.01</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.974+/-0.031</t>
+  </si>
+  <si>
+    <t>0.841+/-0.035</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642+/-0.002</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
   </si>
   <si>
     <t>0.601</t>
   </si>
   <si>
-    <t>0.61+/-0.001</t>
-  </si>
-  <si>
-    <t>0.61+/-0.01</t>
+    <t>0.606+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.009</t>
   </si>
   <si>
     <t>0.485</t>
   </si>
   <si>
-    <t>0.813+/-0.002</t>
-  </si>
-  <si>
-    <t>0.812+/-0.013</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.258+/-0.034</t>
-  </si>
-  <si>
-    <t>0.632+/-0.001</t>
-  </si>
-  <si>
-    <t>0.63+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.599+/-0.01</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.791+/-0.004</t>
-  </si>
-  <si>
-    <t>0.788+/-0.02</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.609+/-0.002</t>
+    <t>0.81+/-0.002</t>
+  </si>
+  <si>
+    <t>0.809+/-0.016</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.063+/-0.004</t>
+  </si>
+  <si>
+    <t>0.63+/-0.001</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.599+/-0.001</t>
+  </si>
+  <si>
+    <t>0.599+/-0.011</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.783+/-0.005</t>
+  </si>
+  <si>
+    <t>0.782+/-0.023</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.609+/-0.001</t>
   </si>
   <si>
     <t>0.608+/-0.0</t>
   </si>
   <si>
-    <t>0.596+/-0.001</t>
-  </si>
-  <si>
-    <t>0.595+/-0.01</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.677+/-0.006</t>
-  </si>
-  <si>
-    <t>0.675+/-0.018</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.777+/-0.007</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.762+/-0.024</t>
-  </si>
-  <si>
-    <t>0.725+/-0.027</t>
-  </si>
-  <si>
     <t>0.598</t>
   </si>
   <si>
-    <t>0.809+/-0.054</t>
-  </si>
-  <si>
-    <t>0.766+/-0.056</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>5.043+/-1.634</t>
-  </si>
-  <si>
-    <t>0.788+/-0.006</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.766+/-0.016</t>
-  </si>
-  <si>
-    <t>0.705+/-0.024</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.831+/-0.021</t>
-  </si>
-  <si>
-    <t>0.768+/-0.031</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.147+/-0.012</t>
-  </si>
-  <si>
-    <t>0.778+/-0.006</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
+    <t>0.598+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.012</t>
+  </si>
+  <si>
+    <t>0.669+/-0.005</t>
+  </si>
+  <si>
+    <t>0.667+/-0.025</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772+/-0.006</t>
+  </si>
+  <si>
+    <t>0.729+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.749+/-0.017</t>
+  </si>
+  <si>
+    <t>0.708+/-0.021</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.822+/-0.029</t>
+  </si>
+  <si>
+    <t>0.782+/-0.034</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>4.006+/-0.775</t>
+  </si>
+  <si>
+    <t>0.783+/-0.004</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.744+/-0.013</t>
+  </si>
+  <si>
+    <t>0.677+/-0.015</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.864+/-0.033</t>
+  </si>
+  <si>
+    <t>0.787+/-0.035</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.128+/-0.013</t>
+  </si>
+  <si>
+    <t>0.771+/-0.005</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.731+/-0.007</t>
+  </si>
+  <si>
+    <t>0.675+/-0.013</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.858+/-0.023</t>
+  </si>
+  <si>
+    <t>0.792+/-0.027</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.181+/-0.016</t>
+  </si>
+  <si>
+    <t>0.723+/-0.002</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.662+/-0.007</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.856+/-0.002</t>
+  </si>
+  <si>
+    <t>0.837+/-0.015</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>46.688+/-2.926</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.977+/-0.003</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.984+/-0.024</t>
+  </si>
+  <si>
+    <t>0.739+/-0.018</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.97+/-0.019</t>
+  </si>
+  <si>
+    <t>0.938+/-0.02</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.619+/-0.001</t>
+  </si>
+  <si>
+    <t>0.619+/-0.0</t>
   </si>
   <si>
     <t>0.688</t>
   </si>
   <si>
-    <t>0.759+/-0.015</t>
-  </si>
-  <si>
-    <t>0.702+/-0.019</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.816+/-0.021</t>
-  </si>
-  <si>
-    <t>0.759+/-0.023</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.199+/-0.008</t>
-  </si>
-  <si>
-    <t>0.725+/-0.002</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679+/-0.002</t>
-  </si>
-  <si>
-    <t>0.663+/-0.007</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
-    <t>0.836+/-0.018</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>56.858+/-5.915</t>
-  </si>
-  <si>
-    <t>0.978+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.743+/-0.006</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.957+/-0.001</t>
-  </si>
-  <si>
-    <t>0.922+/-0.008</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.618+/-0.002</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.65+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.019</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.512+/-0.002</t>
-  </si>
-  <si>
-    <t>0.512+/-0.016</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.081+/-0.007</t>
-  </si>
-  <si>
-    <t>0.579+/-0.003</t>
-  </si>
-  <si>
-    <t>0.577+/-0.0</t>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.651+/-0.015</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.514+/-0.003</t>
+  </si>
+  <si>
+    <t>0.514+/-0.021</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.087+/-0.006</t>
+  </si>
+  <si>
+    <t>0.585+/-0.005</t>
+  </si>
+  <si>
+    <t>0.585+/-0.0</t>
+  </si>
+  <si>
+    <t>0.583+/-0.008</t>
+  </si>
+  <si>
+    <t>0.583+/-0.018</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.599+/-0.017</t>
+  </si>
+  <si>
+    <t>0.599+/-0.024</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.566+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57+/-0.001</t>
+  </si>
+  <si>
+    <t>0.569+/-0.012</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.534+/-0.002</t>
+  </si>
+  <si>
+    <t>0.532+/-0.023</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.794+/-0.008</t>
+  </si>
+  <si>
+    <t>0.763+/-0.0</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.802+/-0.028</t>
+  </si>
+  <si>
+    <t>0.767+/-0.024</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.785+/-0.044</t>
+  </si>
+  <si>
+    <t>0.758+/-0.046</t>
+  </si>
+  <si>
+    <t>7.287+/-1.308</t>
+  </si>
+  <si>
+    <t>0.815+/-0.007</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.832+/-0.008</t>
+  </si>
+  <si>
+    <t>0.767+/-0.014</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.79+/-0.014</t>
+  </si>
+  <si>
+    <t>0.739+/-0.019</t>
   </si>
   <si>
     <t>0.558</t>
   </si>
   <si>
-    <t>0.574+/-0.004</t>
-  </si>
-  <si>
-    <t>0.572+/-0.013</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.616+/-0.011</t>
-  </si>
-  <si>
-    <t>0.614+/-0.022</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.57+/-0.001</t>
-  </si>
-  <si>
-    <t>0.569+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.575+/-0.001</t>
-  </si>
-  <si>
-    <t>0.574+/-0.01</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.537+/-0.002</t>
-  </si>
-  <si>
-    <t>0.538+/-0.015</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789+/-0.006</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.799+/-0.026</t>
-  </si>
-  <si>
-    <t>0.769+/-0.028</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.776+/-0.038</t>
-  </si>
-  <si>
-    <t>0.753+/-0.045</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>6.173+/-1.73</t>
-  </si>
-  <si>
-    <t>0.813+/-0.005</t>
-  </si>
-  <si>
-    <t>0.752+/-0.0</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.83+/-0.009</t>
-  </si>
-  <si>
-    <t>0.764+/-0.011</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.787+/-0.012</t>
-  </si>
-  <si>
-    <t>0.731+/-0.014</t>
+    <t>0.187+/-0.02</t>
+  </si>
+  <si>
+    <t>0.799+/-0.006</t>
+  </si>
+  <si>
+    <t>0.744+/-0.0</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.814+/-0.015</t>
+  </si>
+  <si>
+    <t>0.755+/-0.011</t>
+  </si>
+  <si>
+    <t>0.775+/-0.018</t>
+  </si>
+  <si>
+    <t>0.722+/-0.023</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.29+/-0.027</t>
+  </si>
+  <si>
+    <t>0.753+/-0.002</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.79+/-0.012</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.661+/-0.007</t>
+  </si>
+  <si>
+    <t>0.646+/-0.025</t>
   </si>
   <si>
     <t>0.582</t>
   </si>
   <si>
-    <t>0.177+/-0.01</t>
-  </si>
-  <si>
-    <t>0.803+/-0.003</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.825+/-0.012</t>
-  </si>
-  <si>
-    <t>0.764+/-0.009</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.77+/-0.011</t>
-  </si>
-  <si>
-    <t>0.717+/-0.011</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.259+/-0.013</t>
-  </si>
-  <si>
-    <t>0.756+/-0.001</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.816+/-0.002</t>
-  </si>
-  <si>
-    <t>0.799+/-0.012</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.662+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.018</t>
-  </si>
-  <si>
-    <t>91.67+/-6.526</t>
+    <t>158.192+/-28.001</t>
   </si>
 </sst>
 </file>
@@ -940,28 +955,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -969,31 +984,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1001,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1033,31 +1048,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1065,31 +1080,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1097,31 +1112,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1129,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1161,31 +1176,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1193,31 +1208,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1225,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1311,19 +1326,19 @@
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1331,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
@@ -1343,19 +1358,19 @@
         <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1363,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
@@ -1372,22 +1387,22 @@
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1395,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>109</v>
@@ -1404,22 +1419,22 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1427,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -1436,22 +1451,22 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1459,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>111</v>
@@ -1468,22 +1483,22 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="J7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1491,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -1500,22 +1515,22 @@
         <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>167</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1532,22 +1547,22 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>168</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1555,7 +1570,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -1564,22 +1579,22 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1587,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -1596,22 +1611,22 @@
         <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
